--- a/Resources/Atmosphere Volume by Altitude.xlsx
+++ b/Resources/Atmosphere Volume by Altitude.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Grattendick\Desktop\DataVizBattle\DataVizBattleStandardAtmosphereDecember2019\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F652859-9CD1-4B92-9222-00EF737C83C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F774D6BD-D913-4E43-B098-4B238D72113F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{658F5E04-4479-4372-B5DD-BD407F774E77}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{658F5E04-4479-4372-B5DD-BD407F774E77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Values for Noted Rows in Master" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Area</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Pressure (N/m^2)</t>
   </si>
   <si>
-    <t>PV=nRT</t>
-  </si>
-  <si>
-    <t>(PV)/(RT)=n</t>
-  </si>
-  <si>
     <t>Adjusted Volume (l)</t>
   </si>
   <si>
@@ -125,6 +119,18 @@
   </si>
   <si>
     <t>Mols of Atmosphere</t>
+  </si>
+  <si>
+    <t>Adjusted Volume (m^3)</t>
+  </si>
+  <si>
+    <t>Note One</t>
+  </si>
+  <si>
+    <t>Note Two</t>
+  </si>
+  <si>
+    <t>Note Three</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84606FE4-A8C5-4C69-9C79-20510973DEF8}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,16 +529,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
       </c>
       <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -567,7 +575,7 @@
         <v>0.99975326918332097</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2214,21 +2222,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4BA5E4-50A5-4CA7-A91A-347B933C38A3}">
-  <dimension ref="D7:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4B2B93-DFCB-4F97-B16C-8CF02D65C00C}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1.0919011708880825E+21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="D3">
+        <v>11000</v>
+      </c>
+      <c r="E3">
+        <v>6389000</v>
+      </c>
+      <c r="F3">
+        <v>1.092414041321642E+21</v>
+      </c>
+      <c r="G3">
+        <v>5.1287043355954381E+17</v>
+      </c>
+      <c r="H3">
+        <v>5.1287043355954381E+20</v>
+      </c>
+      <c r="I3">
+        <v>19400</v>
+      </c>
+      <c r="J3">
+        <v>0.19146311374290648</v>
+      </c>
+      <c r="K3">
+        <v>4.0986418643457168E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>216.65</v>
+      </c>
+      <c r="D4">
+        <v>12000</v>
+      </c>
+      <c r="E4">
+        <v>6390000</v>
+      </c>
+      <c r="F4">
+        <v>1.092927072328285E+21</v>
+      </c>
+      <c r="G4">
+        <v>5.1303100664302797E+17</v>
+      </c>
+      <c r="H4">
+        <v>5.1303100664302797E+20</v>
+      </c>
+      <c r="I4">
+        <v>19400</v>
+      </c>
+      <c r="J4">
+        <v>0.19146311374290648</v>
+      </c>
+      <c r="K4">
+        <v>5.4530044606752888E+16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1.1104658469867318E+21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>228.65</v>
+      </c>
+      <c r="D7">
+        <v>47000</v>
+      </c>
+      <c r="E7">
+        <v>6425000</v>
+      </c>
+      <c r="F7">
+        <v>1.1109845138849318E+21</v>
+      </c>
+      <c r="G7">
+        <v>5.1866689819993702E+17</v>
+      </c>
+      <c r="H7">
+        <v>5.1866689819993702E+20</v>
+      </c>
+      <c r="I7">
+        <v>102.3</v>
+      </c>
+      <c r="J7">
+        <v>1.009622501850481E-3</v>
+      </c>
+      <c r="K7">
+        <v>275449610331855.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="D8">
+        <v>48000</v>
+      </c>
+      <c r="E8">
+        <v>6426000</v>
+      </c>
+      <c r="F8">
+        <v>1.111503342260994E+21</v>
+      </c>
+      <c r="G8">
+        <v>5.1882837606229606E+17</v>
+      </c>
+      <c r="H8">
+        <v>5.1882837606229606E+20</v>
+      </c>
+      <c r="I8">
+        <v>102.3</v>
+      </c>
+      <c r="J8">
+        <v>1.009622501850481E-3</v>
+      </c>
+      <c r="K8">
+        <v>232777245914970.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1.1229584713022202E+21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="D11">
+        <v>71000</v>
+      </c>
+      <c r="E11">
+        <v>6449000</v>
+      </c>
+      <c r="F11">
+        <v>1.1234810206057542E+21</v>
+      </c>
+      <c r="G11">
+        <v>5.2254930353402675E+17</v>
+      </c>
+      <c r="H11">
+        <v>5.2254930353402675E+20</v>
+      </c>
+      <c r="I11">
+        <v>3.835</v>
+      </c>
+      <c r="J11">
+        <v>3.7848507278559091E-5</v>
+      </c>
+      <c r="K11">
+        <v>8788885621969.6914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>214.65</v>
+      </c>
+      <c r="D12">
+        <v>72000</v>
+      </c>
+      <c r="E12">
+        <v>6450000</v>
+      </c>
+      <c r="F12">
+        <v>1.1240037319903365E+21</v>
+      </c>
+      <c r="G12">
+        <v>5.2271138458225869E+17</v>
+      </c>
+      <c r="H12">
+        <v>5.2271138458225869E+20</v>
+      </c>
+      <c r="I12">
+        <v>3.835</v>
+      </c>
+      <c r="J12">
+        <v>3.7848507278559091E-5</v>
+      </c>
+      <c r="K12">
+        <v>11085253703438.973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1.112541483547237E+21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="D15">
+        <v>51000</v>
+      </c>
+      <c r="E15">
+        <v>6429000</v>
+      </c>
+      <c r="F15">
+        <v>1.113060796507683E+21</v>
+      </c>
+      <c r="G15">
+        <v>5.1931296044600525E+17</v>
+      </c>
+      <c r="H15">
+        <v>5.1931296044600525E+20</v>
+      </c>
+      <c r="I15">
+        <v>62.21</v>
+      </c>
+      <c r="J15">
+        <v>6.1396496422403161E-4</v>
+      </c>
+      <c r="K15">
+        <v>141687172563305.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="D16">
+        <v>52000</v>
+      </c>
+      <c r="E16">
+        <v>6430000</v>
+      </c>
+      <c r="F16">
+        <v>1.1135802710465223E+21</v>
+      </c>
+      <c r="G16">
+        <v>5.1947453883927757E+17</v>
+      </c>
+      <c r="H16">
+        <v>5.1947453883927757E+20</v>
+      </c>
+      <c r="I16">
+        <v>62.21</v>
+      </c>
+      <c r="J16">
+        <v>6.1396496422403161E-4</v>
+      </c>
+      <c r="K16">
+        <v>141731256935223.59</v>
       </c>
     </row>
   </sheetData>
